--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_7_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_7_5.xlsx
@@ -478,373 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_0</t>
+          <t>model_7_5_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2055751375015213</v>
+        <v>0.7247495437567779</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.436206141884584</v>
+        <v>0.06376739587406144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005101113838523408</v>
+        <v>0.82409504076811</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1255038599374632</v>
+        <v>0.3847048822927533</v>
       </c>
       <c r="F2" t="n">
-        <v>1.334216475486755</v>
+        <v>0.304621160030365</v>
       </c>
       <c r="G2" t="n">
-        <v>2.11638617515564</v>
+        <v>1.549709916114807</v>
       </c>
       <c r="H2" t="n">
-        <v>1.161741971969604</v>
+        <v>0.2319634109735489</v>
       </c>
       <c r="I2" t="n">
-        <v>1.667141914367676</v>
+        <v>0.9295945763587952</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_1</t>
+          <t>model_7_5_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1682124833916652</v>
+        <v>0.7283151784190296</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.367535141595809</v>
+        <v>0.07765003039167628</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05698787855671128</v>
+        <v>0.8302995674595636</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1357087705304449</v>
+        <v>0.3953069529429234</v>
       </c>
       <c r="F3" t="n">
-        <v>1.292866945266724</v>
+        <v>0.3006750643253326</v>
       </c>
       <c r="G3" t="n">
-        <v>2.015192985534668</v>
+        <v>1.526730537414551</v>
       </c>
       <c r="H3" t="n">
-        <v>1.234243154525757</v>
+        <v>0.2237815707921982</v>
       </c>
       <c r="I3" t="n">
-        <v>1.647687196731567</v>
+        <v>0.9135769605636597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_2</t>
+          <t>model_7_5_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1149320330580077</v>
+        <v>0.7322299905351446</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2179438478991931</v>
+        <v>0.09324926030642955</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07890904751530337</v>
+        <v>0.8363128304565055</v>
       </c>
       <c r="E4" t="n">
-        <v>0.190605940043114</v>
+        <v>0.4068222504097677</v>
       </c>
       <c r="F4" t="n">
-        <v>1.233901262283325</v>
+        <v>0.2963425517082214</v>
       </c>
       <c r="G4" t="n">
-        <v>1.794756174087524</v>
+        <v>1.500909805297852</v>
       </c>
       <c r="H4" t="n">
-        <v>1.259840369224548</v>
+        <v>0.2158519625663757</v>
       </c>
       <c r="I4" t="n">
-        <v>1.543031096458435</v>
+        <v>0.8961794972419739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_3</t>
+          <t>model_7_5_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06407064520691352</v>
+        <v>0.7366564787997097</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1144151526349375</v>
+        <v>0.1110998820209144</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0914419338320196</v>
+        <v>0.8423777192207784</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2293595338142385</v>
+        <v>0.4196689343026407</v>
       </c>
       <c r="F5" t="n">
-        <v>1.177612662315369</v>
+        <v>0.2914436757564545</v>
       </c>
       <c r="G5" t="n">
-        <v>1.642196774482727</v>
+        <v>1.471362352371216</v>
       </c>
       <c r="H5" t="n">
-        <v>1.27447497844696</v>
+        <v>0.207854300737381</v>
       </c>
       <c r="I5" t="n">
-        <v>1.469151139259338</v>
+        <v>0.876770555973053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_4</t>
+          <t>model_7_5_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02116001700053793</v>
+        <v>0.7415264976253521</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02784211711823814</v>
+        <v>0.1309114170639998</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1080103162454011</v>
+        <v>0.848536849800671</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2600112445803046</v>
+        <v>0.4336901501606907</v>
       </c>
       <c r="F6" t="n">
-        <v>1.130123257637024</v>
+        <v>0.2860539853572845</v>
       </c>
       <c r="G6" t="n">
-        <v>1.514623165130615</v>
+        <v>1.438569068908691</v>
       </c>
       <c r="H6" t="n">
-        <v>1.293821930885315</v>
+        <v>0.1997323334217072</v>
       </c>
       <c r="I6" t="n">
-        <v>1.410716652870178</v>
+        <v>0.8555871844291687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_5</t>
+          <t>model_7_5_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01975413879074317</v>
+        <v>0.7468641642014335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06080872957825423</v>
+        <v>0.152921345870812</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1286628296826879</v>
+        <v>0.8545328319623225</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2903360294247608</v>
+        <v>0.4489203907476186</v>
       </c>
       <c r="F7" t="n">
-        <v>1.084843397140503</v>
+        <v>0.2801467776298523</v>
       </c>
       <c r="G7" t="n">
-        <v>1.383987545967102</v>
+        <v>1.40213680267334</v>
       </c>
       <c r="H7" t="n">
-        <v>1.317937850952148</v>
+        <v>0.1918255090713501</v>
       </c>
       <c r="I7" t="n">
-        <v>1.3529052734375</v>
+        <v>0.8325772285461426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_6</t>
+          <t>model_7_5_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05748789463149684</v>
+        <v>0.752883638722313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1491613354823159</v>
+        <v>0.1777542516197554</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1508731148880311</v>
+        <v>0.8607876574019349</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3200897241464236</v>
+        <v>0.4658921829782201</v>
       </c>
       <c r="F8" t="n">
-        <v>1.043083190917969</v>
+        <v>0.2734850347042084</v>
       </c>
       <c r="G8" t="n">
-        <v>1.253791689872742</v>
+        <v>1.361032009124756</v>
       </c>
       <c r="H8" t="n">
-        <v>1.343872904777527</v>
+        <v>0.1835773587226868</v>
       </c>
       <c r="I8" t="n">
-        <v>1.296182990074158</v>
+        <v>0.8069360256195068</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_7</t>
+          <t>model_7_5_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09397738074704209</v>
+        <v>0.7593863819171758</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2365794944883491</v>
+        <v>0.2049069878355617</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1824932052901989</v>
+        <v>0.8668175930059645</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3467488199417277</v>
+        <v>0.4841174374567468</v>
       </c>
       <c r="F9" t="n">
-        <v>1.002700090408325</v>
+        <v>0.2662883698940277</v>
       </c>
       <c r="G9" t="n">
-        <v>1.124972701072693</v>
+        <v>1.316087007522583</v>
       </c>
       <c r="H9" t="n">
-        <v>1.380795478820801</v>
+        <v>0.1756257712841034</v>
       </c>
       <c r="I9" t="n">
-        <v>1.245359897613525</v>
+        <v>0.7794010639190674</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_8</t>
+          <t>model_7_5_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1278183683341417</v>
+        <v>0.7663057795530505</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3041295893829953</v>
+        <v>0.2338371309332362</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2250552750399819</v>
+        <v>0.8730547286292003</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3621236148181642</v>
+        <v>0.5034597314993571</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9652481079101562</v>
+        <v>0.2586306035518646</v>
       </c>
       <c r="G10" t="n">
-        <v>1.025431156158447</v>
+        <v>1.268200039863586</v>
       </c>
       <c r="H10" t="n">
-        <v>1.430495142936707</v>
+        <v>0.1674009561538696</v>
       </c>
       <c r="I10" t="n">
-        <v>1.216049432754517</v>
+        <v>0.7501785755157471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_9</t>
+          <t>model_7_5_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1599460894469115</v>
+        <v>0.774408358093261</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3302425587520561</v>
+        <v>0.2676764579664317</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2649217991541326</v>
+        <v>0.879557137700689</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3613182309233012</v>
+        <v>0.5257597832123682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9296920895576477</v>
+        <v>0.249663457274437</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9869511723518372</v>
+        <v>1.212187170982361</v>
       </c>
       <c r="H11" t="n">
-        <v>1.477047204971313</v>
+        <v>0.1588263213634491</v>
       </c>
       <c r="I11" t="n">
-        <v>1.217584848403931</v>
+        <v>0.7164874076843262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_10</t>
+          <t>model_7_5_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1727935357958371</v>
+        <v>0.7834092300040275</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3137643578412218</v>
+        <v>0.3053892226534659</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2905357137482083</v>
+        <v>0.8862110057372222</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3471920590663923</v>
+        <v>0.5503666935135632</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9154738187789917</v>
+        <v>0.2397021502256393</v>
       </c>
       <c r="G12" t="n">
-        <v>1.011233448982239</v>
+        <v>1.149762630462646</v>
       </c>
       <c r="H12" t="n">
-        <v>1.506956577301025</v>
+        <v>0.1500519514083862</v>
       </c>
       <c r="I12" t="n">
-        <v>1.244514942169189</v>
+        <v>0.6793109774589539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_11</t>
+          <t>model_7_5_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1911972704589184</v>
+        <v>0.7934246207252602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3169532266130504</v>
+        <v>0.3473317888983217</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.303444153770883</v>
+        <v>0.8930790166467704</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3447761322489916</v>
+        <v>0.5775134858641009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8951062560081482</v>
+        <v>0.2286181002855301</v>
       </c>
       <c r="G13" t="n">
-        <v>1.006534337997437</v>
+        <v>1.080336689949036</v>
       </c>
       <c r="H13" t="n">
-        <v>1.522029757499695</v>
+        <v>0.1409952044487</v>
       </c>
       <c r="I13" t="n">
-        <v>1.249120712280273</v>
+        <v>0.6382972598075867</v>
       </c>
     </row>
     <row r="14">
@@ -854,400 +854,400 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2079445902184436</v>
+        <v>0.8050318982823272</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3321798012092101</v>
+        <v>0.3960310186087773</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3118506603075599</v>
+        <v>0.9001962825826963</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3485841145939023</v>
+        <v>0.6086835686852032</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8765719532966614</v>
+        <v>0.2157722264528275</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9840966463088989</v>
+        <v>0.9997267127037048</v>
       </c>
       <c r="H14" t="n">
-        <v>1.531846046447754</v>
+        <v>0.1316097676753998</v>
       </c>
       <c r="I14" t="n">
-        <v>1.24186098575592</v>
+        <v>0.5912051796913147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_13</t>
+          <t>model_7_5_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2285401548278908</v>
+        <v>0.817053324203673</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3511249594037955</v>
+        <v>0.4466141876580161</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3179252632092335</v>
+        <v>0.907202540371934</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3545858581274434</v>
+        <v>0.6409062929581394</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8537787199020386</v>
+        <v>0.202468067407608</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9561790823936462</v>
+        <v>0.9159983396530151</v>
       </c>
       <c r="H15" t="n">
-        <v>1.538939237594604</v>
+        <v>0.1223707050085068</v>
       </c>
       <c r="I15" t="n">
-        <v>1.230419397354126</v>
+        <v>0.5425227880477905</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_14</t>
+          <t>model_7_5_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2482243239696883</v>
+        <v>0.8290776653281506</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3736461490693403</v>
+        <v>0.4975465033471456</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3266109126040548</v>
+        <v>0.9140916799569087</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3612984463096669</v>
+        <v>0.6732755162018431</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8319941163063049</v>
+        <v>0.1891606748104095</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9229919910430908</v>
+        <v>0.8316920399665833</v>
       </c>
       <c r="H16" t="n">
-        <v>1.549081563949585</v>
+        <v>0.113286092877388</v>
       </c>
       <c r="I16" t="n">
-        <v>1.21762228012085</v>
+        <v>0.4936189651489258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_15</t>
+          <t>model_7_5_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2699735231153586</v>
+        <v>0.841610869147156</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3951290643874668</v>
+        <v>0.5510797141949351</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3338673031929413</v>
+        <v>0.9207342671646286</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3679980269887898</v>
+        <v>0.7070542227921628</v>
       </c>
       <c r="F17" t="n">
-        <v>0.807924211025238</v>
+        <v>0.1752900928258896</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8913348317146301</v>
+        <v>0.7430805563926697</v>
       </c>
       <c r="H17" t="n">
-        <v>1.557554721832275</v>
+        <v>0.1045266091823578</v>
       </c>
       <c r="I17" t="n">
-        <v>1.204850316047668</v>
+        <v>0.4425857365131378</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_16</t>
+          <t>model_7_5_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2888553190542118</v>
+        <v>0.8538103386396062</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4151148895416225</v>
+        <v>0.603557863011282</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3415982660107262</v>
+        <v>0.9270979761446071</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3739483876901862</v>
+        <v>0.740107451331429</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7870276570320129</v>
+        <v>0.1617888659238815</v>
       </c>
       <c r="G18" t="n">
-        <v>0.861883819103241</v>
+        <v>0.6562154293060303</v>
       </c>
       <c r="H18" t="n">
-        <v>1.566582202911377</v>
+        <v>0.09613487869501114</v>
       </c>
       <c r="I18" t="n">
-        <v>1.193506598472595</v>
+        <v>0.3926485478878021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_17</t>
+          <t>model_7_5_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3086101764173461</v>
+        <v>0.8659047125460969</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4359849968584134</v>
+        <v>0.6561778840938759</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3483155804570373</v>
+        <v>0.9331042990212493</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3805525559181325</v>
+        <v>0.7730946982284916</v>
       </c>
       <c r="F19" t="n">
-        <v>0.765164852142334</v>
+        <v>0.1484039574861526</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8311297297477722</v>
+        <v>0.5691155195236206</v>
       </c>
       <c r="H19" t="n">
-        <v>1.574426054954529</v>
+        <v>0.08821442723274231</v>
       </c>
       <c r="I19" t="n">
-        <v>1.180916309356689</v>
+        <v>0.3428110480308533</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_18</t>
+          <t>model_7_5_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3252300646171367</v>
+        <v>0.8769125906037676</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4584503072814653</v>
+        <v>0.704841064951601</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3552309452104052</v>
+        <v>0.9386698864674884</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3877525556826292</v>
+        <v>0.8036083515405559</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7467714548110962</v>
+        <v>0.1362214982509613</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7980248928070068</v>
+        <v>0.4885652959346771</v>
       </c>
       <c r="H20" t="n">
-        <v>1.582501173019409</v>
+        <v>0.08087515830993652</v>
       </c>
       <c r="I20" t="n">
-        <v>1.167190313339233</v>
+        <v>0.2967106699943542</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_19</t>
+          <t>model_7_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3424222992589546</v>
+        <v>0.8868052547222347</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4792226260160612</v>
+        <v>0.749617847544491</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3623262017696334</v>
+        <v>0.9435670692414279</v>
       </c>
       <c r="E21" t="n">
-        <v>0.394207974229946</v>
+        <v>0.8315926039728895</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7277446985244751</v>
+        <v>0.1252732276916504</v>
       </c>
       <c r="G21" t="n">
-        <v>0.767414927482605</v>
+        <v>0.4144479930400848</v>
       </c>
       <c r="H21" t="n">
-        <v>1.590786218643188</v>
+        <v>0.07441731542348862</v>
       </c>
       <c r="I21" t="n">
-        <v>1.154883623123169</v>
+        <v>0.2544317543506622</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_20</t>
+          <t>model_7_5_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3588276180919794</v>
+        <v>0.8954115130359251</v>
       </c>
       <c r="C22" t="n">
-        <v>0.49953753019921</v>
+        <v>0.7903815812439933</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3692823708724005</v>
+        <v>0.9470872057996911</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4005160171551934</v>
+        <v>0.8566818579159845</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7095889449119568</v>
+        <v>0.1157486438751221</v>
       </c>
       <c r="G22" t="n">
-        <v>0.737479031085968</v>
+        <v>0.346973329782486</v>
       </c>
       <c r="H22" t="n">
-        <v>1.598909020423889</v>
+        <v>0.06977535784244537</v>
       </c>
       <c r="I22" t="n">
-        <v>1.142858028411865</v>
+        <v>0.2165266275405884</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_21</t>
+          <t>model_7_5_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3757365127379749</v>
+        <v>0.9004285761578044</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5200523355287496</v>
+        <v>0.8164053135431721</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3755329063691311</v>
+        <v>0.950424639442038</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4071094122329763</v>
+        <v>0.8731469648246083</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6908756494522095</v>
+        <v>0.1101962253451347</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7072485089302063</v>
+        <v>0.3038972616195679</v>
       </c>
       <c r="H23" t="n">
-        <v>1.606207609176636</v>
+        <v>0.06537432968616486</v>
       </c>
       <c r="I23" t="n">
-        <v>1.130288362503052</v>
+        <v>0.1916509866714478</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_22</t>
+          <t>model_7_5_0</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3906825227039863</v>
+        <v>0.9032002323269125</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5381124973136608</v>
+        <v>0.8557186389250049</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3817792382672469</v>
+        <v>0.9463487679164062</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4126995750443792</v>
+        <v>0.8942760518742964</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6743349432945251</v>
+        <v>0.1071288213133812</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6806351542472839</v>
+        <v>0.238823413848877</v>
       </c>
       <c r="H24" t="n">
-        <v>1.6135014295578</v>
+        <v>0.07074913382530212</v>
       </c>
       <c r="I24" t="n">
-        <v>1.119631290435791</v>
+        <v>0.1597288995981216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_23</t>
+          <t>model_7_5_2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4057143629541961</v>
+        <v>0.9037192653810219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5564755199269158</v>
+        <v>0.8372102935678493</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3871421603482619</v>
+        <v>0.9515494534337017</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4186684116327862</v>
+        <v>0.8856763609933811</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6576991081237793</v>
+        <v>0.1065543964505196</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6535755395889282</v>
+        <v>0.2694595754146576</v>
       </c>
       <c r="H25" t="n">
-        <v>1.619763731956482</v>
+        <v>0.06389105319976807</v>
       </c>
       <c r="I25" t="n">
-        <v>1.108252167701721</v>
+        <v>0.1727214455604553</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_24</t>
+          <t>model_7_5_1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4237649029159197</v>
+        <v>0.9048022956938477</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5768881376765262</v>
+        <v>0.8510058844790237</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3918554352754804</v>
+        <v>0.9501462446213255</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4256629608592045</v>
+        <v>0.8931018893132748</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6377224326133728</v>
+        <v>0.1053558066487312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6234955787658691</v>
+        <v>0.2466242611408234</v>
       </c>
       <c r="H26" t="n">
-        <v>1.625267386436462</v>
+        <v>0.06574144959449768</v>
       </c>
       <c r="I26" t="n">
-        <v>1.094917774200439</v>
+        <v>0.1615028530359268</v>
       </c>
     </row>
   </sheetData>
